--- a/documents/Anforderungsartefakte/Technische Anforderungen.xlsx
+++ b/documents/Anforderungsartefakte/Technische Anforderungen.xlsx
@@ -117,16 +117,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>135938</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>145754</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>46321</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9816</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>122521</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -143,7 +143,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6757718" y="106680"/>
+          <a:off x="0" y="0"/>
           <a:ext cx="6715416" cy="4145881"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -446,7 +446,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A2" sqref="A2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,7 +529,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -542,6 +541,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
